--- a/lowe/edd/data/MARIPHWS.xlsx
+++ b/lowe/edd/data/MARIPHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1325,14 +1325,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH45"/>
+  <dimension ref="A1:JI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1342,12 +1342,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,14 +1357,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1372,12 +1372,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2192,11 +2192,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2997,10 +3000,13 @@
         <v>7950</v>
       </c>
       <c r="JH9" s="11">
-        <v>7830</v>
+        <v>7820</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>7730</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3801,10 +3807,13 @@
         <v>7420</v>
       </c>
       <c r="JH10" s="11">
-        <v>7310</v>
+        <v>7320</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>7290</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4605,10 +4614,13 @@
         <v>530</v>
       </c>
       <c r="JH11" s="11">
-        <v>520</v>
+        <v>510</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5409,10 +5421,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>6.6000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6215,8 +6230,11 @@
       <c r="JH13" s="11">
         <v>5670</v>
       </c>
+      <c r="JI13" s="11">
+        <v>5590</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7019,8 +7037,11 @@
       <c r="JH14" s="11">
         <v>40</v>
       </c>
+      <c r="JI14" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7823,8 +7844,11 @@
       <c r="JH15" s="11">
         <v>5630</v>
       </c>
+      <c r="JI15" s="11">
+        <v>5550</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8627,8 +8651,11 @@
       <c r="JH16" s="11">
         <v>3380</v>
       </c>
+      <c r="JI16" s="11">
+        <v>3290</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9431,8 +9458,11 @@
       <c r="JH17" s="11">
         <v>410</v>
       </c>
+      <c r="JI17" s="11">
+        <v>420</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10235,8 +10265,11 @@
       <c r="JH18" s="11">
         <v>300</v>
       </c>
+      <c r="JI18" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -11039,8 +11072,11 @@
       <c r="JH19" s="11">
         <v>60</v>
       </c>
+      <c r="JI19" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -11843,8 +11879,11 @@
       <c r="JH20" s="11">
         <v>240</v>
       </c>
+      <c r="JI20" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12647,8 +12686,11 @@
       <c r="JH21" s="11">
         <v>110</v>
       </c>
+      <c r="JI21" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13451,8 +13493,11 @@
       <c r="JH22" s="11">
         <v>5220</v>
       </c>
+      <c r="JI22" s="11">
+        <v>5140</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14255,8 +14300,11 @@
       <c r="JH23" s="11">
         <v>2970</v>
       </c>
+      <c r="JI23" s="11">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15059,8 +15107,11 @@
       <c r="JH24" s="11">
         <v>500</v>
       </c>
+      <c r="JI24" s="11">
+        <v>480</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15863,8 +15914,11 @@
       <c r="JH25" s="11">
         <v>10</v>
       </c>
+      <c r="JI25" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16667,8 +16721,11 @@
       <c r="JH26" s="11">
         <v>440</v>
       </c>
+      <c r="JI26" s="11">
+        <v>420</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17471,8 +17528,11 @@
       <c r="JH27" s="11">
         <v>60</v>
       </c>
+      <c r="JI27" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18275,8 +18335,11 @@
       <c r="JH28" s="11">
         <v>250</v>
       </c>
+      <c r="JI28" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19079,8 +19142,11 @@
       <c r="JH29" s="11">
         <v>500</v>
       </c>
+      <c r="JI29" s="11">
+        <v>510</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -19883,8 +19949,11 @@
       <c r="JH30" s="11">
         <v>1480</v>
       </c>
+      <c r="JI30" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20687,8 +20756,11 @@
       <c r="JH31" s="11">
         <v>250</v>
       </c>
+      <c r="JI31" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21491,8 +21563,11 @@
       <c r="JH32" s="11">
         <v>2250</v>
       </c>
+      <c r="JI32" s="11">
+        <v>2270</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22295,8 +22370,11 @@
       <c r="JH33" s="11">
         <v>840</v>
       </c>
+      <c r="JI33" s="11">
+        <v>820</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23099,8 +23177,11 @@
       <c r="JH34" s="11">
         <v>1400</v>
       </c>
+      <c r="JI34" s="11">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -23903,8 +23984,11 @@
       <c r="JH35" s="11">
         <v>300</v>
       </c>
+      <c r="JI35" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24707,8 +24791,11 @@
       <c r="JH36" s="11">
         <v>1110</v>
       </c>
+      <c r="JI36" s="11">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>94</v>
       </c>
@@ -24721,7 +24808,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24734,7 +24821,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>95</v>
       </c>
@@ -24747,7 +24834,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>96</v>
       </c>
@@ -24760,7 +24847,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>97</v>
       </c>
@@ -24773,7 +24860,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>98</v>
       </c>
@@ -24786,7 +24873,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>99</v>
       </c>
@@ -24799,7 +24886,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>100</v>
       </c>

--- a/lowe/edd/data/MARIPHWS.xlsx
+++ b/lowe/edd/data/MARIPHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI45"/>
+  <dimension ref="A1:JJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,12 +1342,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,14 +1357,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1372,12 +1372,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2195,11 +2195,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3005,8 +3008,11 @@
       <c r="JI9" s="11">
         <v>7730</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>7520</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3812,8 +3818,11 @@
       <c r="JI10" s="11">
         <v>7290</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4617,10 +4626,13 @@
         <v>510</v>
       </c>
       <c r="JI11" s="11">
-        <v>440</v>
+        <v>430</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5424,10 +5436,13 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6233,8 +6248,11 @@
       <c r="JI13" s="11">
         <v>5590</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>5450</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7040,8 +7058,11 @@
       <c r="JI14" s="11">
         <v>40</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7847,8 +7868,11 @@
       <c r="JI15" s="11">
         <v>5550</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>5410</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8654,8 +8678,11 @@
       <c r="JI16" s="11">
         <v>3290</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>3260</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9461,8 +9488,11 @@
       <c r="JI17" s="11">
         <v>420</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>420</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10268,8 +10298,11 @@
       <c r="JI18" s="11">
         <v>300</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -11075,8 +11108,11 @@
       <c r="JI19" s="11">
         <v>60</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -11882,8 +11918,11 @@
       <c r="JI20" s="11">
         <v>240</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12689,8 +12728,11 @@
       <c r="JI21" s="11">
         <v>110</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13496,8 +13538,11 @@
       <c r="JI22" s="11">
         <v>5140</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>4990</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14303,8 +14348,11 @@
       <c r="JI23" s="11">
         <v>2870</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>2840</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15110,8 +15158,11 @@
       <c r="JI24" s="11">
         <v>480</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>480</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15917,8 +15968,11 @@
       <c r="JI25" s="11">
         <v>10</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16724,8 +16778,11 @@
       <c r="JI26" s="11">
         <v>420</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>420</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17531,8 +17588,11 @@
       <c r="JI27" s="11">
         <v>60</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18338,8 +18398,11 @@
       <c r="JI28" s="11">
         <v>250</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19145,8 +19208,11 @@
       <c r="JI29" s="11">
         <v>510</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>510</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -19952,8 +20018,11 @@
       <c r="JI30" s="11">
         <v>1400</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>1370</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20759,8 +20828,11 @@
       <c r="JI31" s="11">
         <v>240</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21566,8 +21638,11 @@
       <c r="JI32" s="11">
         <v>2270</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>2150</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22373,8 +22448,11 @@
       <c r="JI33" s="11">
         <v>820</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>720</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23180,8 +23258,11 @@
       <c r="JI34" s="11">
         <v>1450</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>1420</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -23987,8 +24068,11 @@
       <c r="JI35" s="11">
         <v>300</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>290</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24794,8 +24878,11 @@
       <c r="JI36" s="11">
         <v>1150</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>1130</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>94</v>
       </c>
@@ -24808,7 +24895,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24821,7 +24908,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>95</v>
       </c>
@@ -24834,7 +24921,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>96</v>
       </c>
@@ -24847,7 +24934,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>97</v>
       </c>
@@ -24860,7 +24947,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>98</v>
       </c>
@@ -24873,7 +24960,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>99</v>
       </c>
@@ -24886,7 +24973,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>100</v>
       </c>

--- a/lowe/edd/data/MARIPHWS.xlsx
+++ b/lowe/edd/data/MARIPHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ45"/>
+  <dimension ref="A1:JL45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,12 +1342,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,14 +1357,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1372,12 +1372,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2198,11 +2198,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3011,8 +3017,14 @@
       <c r="JJ9" s="11">
         <v>7520</v>
       </c>
+      <c r="JK9" s="11">
+        <v>7170</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>6950</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3821,8 +3833,14 @@
       <c r="JJ10" s="11">
         <v>7100</v>
       </c>
+      <c r="JK10" s="11">
+        <v>6770</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>6570</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4631,8 +4649,14 @@
       <c r="JJ11" s="11">
         <v>420</v>
       </c>
+      <c r="JK11" s="11">
+        <v>390</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>390</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5441,8 +5465,14 @@
       <c r="JJ12" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.5E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6251,8 +6281,14 @@
       <c r="JJ13" s="11">
         <v>5450</v>
       </c>
+      <c r="JK13" s="11">
+        <v>5140</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>4980</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7061,8 +7097,14 @@
       <c r="JJ14" s="11">
         <v>40</v>
       </c>
+      <c r="JK14" s="11">
+        <v>40</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7871,8 +7913,14 @@
       <c r="JJ15" s="11">
         <v>5410</v>
       </c>
+      <c r="JK15" s="11">
+        <v>5100</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>4940</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8681,8 +8729,14 @@
       <c r="JJ16" s="11">
         <v>3260</v>
       </c>
+      <c r="JK16" s="11">
+        <v>3150</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9491,8 +9545,14 @@
       <c r="JJ17" s="11">
         <v>420</v>
       </c>
+      <c r="JK17" s="11">
+        <v>410</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10301,8 +10361,14 @@
       <c r="JJ18" s="11">
         <v>300</v>
       </c>
+      <c r="JK18" s="11">
+        <v>310</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>290</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -11111,8 +11177,14 @@
       <c r="JJ19" s="11">
         <v>50</v>
       </c>
+      <c r="JK19" s="11">
+        <v>50</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -11921,8 +11993,14 @@
       <c r="JJ20" s="11">
         <v>250</v>
       </c>
+      <c r="JK20" s="11">
+        <v>260</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12731,8 +12809,14 @@
       <c r="JJ21" s="11">
         <v>110</v>
       </c>
+      <c r="JK21" s="11">
+        <v>110</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13541,8 +13625,14 @@
       <c r="JJ22" s="11">
         <v>4990</v>
       </c>
+      <c r="JK22" s="11">
+        <v>4690</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>4540</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14351,8 +14441,14 @@
       <c r="JJ23" s="11">
         <v>2840</v>
       </c>
+      <c r="JK23" s="11">
+        <v>2740</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>2640</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15161,8 +15257,14 @@
       <c r="JJ24" s="11">
         <v>480</v>
       </c>
+      <c r="JK24" s="11">
+        <v>480</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>470</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15971,8 +16073,14 @@
       <c r="JJ25" s="11">
         <v>10</v>
       </c>
+      <c r="JK25" s="11">
+        <v>10</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16781,8 +16889,14 @@
       <c r="JJ26" s="11">
         <v>420</v>
       </c>
+      <c r="JK26" s="11">
+        <v>420</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>420</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17591,8 +17705,14 @@
       <c r="JJ27" s="11">
         <v>50</v>
       </c>
+      <c r="JK27" s="11">
+        <v>50</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18401,8 +18521,14 @@
       <c r="JJ28" s="11">
         <v>240</v>
       </c>
+      <c r="JK28" s="11">
+        <v>240</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19211,8 +19337,14 @@
       <c r="JJ29" s="11">
         <v>510</v>
       </c>
+      <c r="JK29" s="11">
+        <v>520</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>520</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20021,8 +20153,14 @@
       <c r="JJ30" s="11">
         <v>1370</v>
       </c>
+      <c r="JK30" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>1220</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20831,8 +20969,14 @@
       <c r="JJ31" s="11">
         <v>250</v>
       </c>
+      <c r="JK31" s="11">
+        <v>210</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>190</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21641,8 +21785,14 @@
       <c r="JJ32" s="11">
         <v>2150</v>
       </c>
+      <c r="JK32" s="11">
+        <v>1950</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>1910</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22451,8 +22601,14 @@
       <c r="JJ33" s="11">
         <v>720</v>
       </c>
+      <c r="JK33" s="11">
+        <v>560</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>550</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23261,8 +23417,14 @@
       <c r="JJ34" s="11">
         <v>1420</v>
       </c>
+      <c r="JK34" s="11">
+        <v>1390</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>1360</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -24071,8 +24233,14 @@
       <c r="JJ35" s="11">
         <v>290</v>
       </c>
+      <c r="JK35" s="11">
+        <v>270</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24881,8 +25049,14 @@
       <c r="JJ36" s="11">
         <v>1130</v>
       </c>
+      <c r="JK36" s="11">
+        <v>1120</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>94</v>
       </c>
@@ -24895,7 +25069,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24908,7 +25082,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>95</v>
       </c>
@@ -24921,7 +25095,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>96</v>
       </c>
@@ -24934,7 +25108,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>97</v>
       </c>
@@ -24947,7 +25121,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>98</v>
       </c>
@@ -24960,7 +25134,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>99</v>
       </c>
@@ -24973,7 +25147,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>100</v>
       </c>
